--- a/results/program_outputs_for_cost_model/econ_analysis_input_data_ref.xlsx
+++ b/results/program_outputs_for_cost_model/econ_analysis_input_data_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/dynamic_transmission_model_HIV_TB_KZN_SA/results/program_outputs_for_cost_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8978739B-67DB-1E4F-A635-EF62EAA62AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AC072-6880-E84C-97DA-25FC74D6D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="4880" windowWidth="27640" windowHeight="16940" xr2:uid="{B66715AF-DCBA-C94E-BDDA-D7D35B6EEA1A}"/>
+    <workbookView xWindow="8200" yWindow="3100" windowWidth="27640" windowHeight="16940" xr2:uid="{B66715AF-DCBA-C94E-BDDA-D7D35B6EEA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Tb_inc_neg_male_cumulative</t>
   </si>
@@ -108,13 +108,19 @@
   </si>
   <si>
     <t>Number of people on ART at time t</t>
+  </si>
+  <si>
+    <t>ART_init_cumulative</t>
+  </si>
+  <si>
+    <t>Total number of individuals who have initialized ART since t = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,19 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70692CF8-CFC3-6543-98AF-EDC9ACA6D483}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -495,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -503,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -511,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -519,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -527,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -535,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -543,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -551,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -559,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -567,7 +573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -575,27 +581,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
